--- a/va_facility_data_2025-02-20/Santa Barbara VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Santa%20Barbara%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Santa Barbara VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Santa%20Barbara%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R3444c44ba2b94f4c8ce99ea20e685f06"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R3f11286d54f04ae693eaec9369d4e789"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R8da13a418bf3453b8270ee21dc2c3126"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Ra4d6ef4400ea44bda3a012448a993492"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R2490e3dae6e5452094004a46e1cbeef4"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R66f90a9454fa407ca41e251f261bf9ae"/>
   </x:sheets>
 </x:workbook>
 </file>
